--- a/Test Data/User Registration Info.xlsx
+++ b/Test Data/User Registration Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>First Name</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Serial No.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>max.russel@123.com</t>
+  </si>
+  <si>
+    <t>Lane40</t>
+  </si>
+  <si>
+    <t>Max123</t>
   </si>
 </sst>
 </file>
@@ -445,7 +463,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +590,39 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>6443</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -628,8 +678,10 @@
     <hyperlink ref="K2" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="K4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>